--- a/Feynman-Hibbs_effective_potential.xlsx
+++ b/Feynman-Hibbs_effective_potential.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC829047-8376-436B-906D-E0BD3410ADD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A5F2B5-61EA-452B-9D23-A3ACB8631A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="315" yWindow="360" windowWidth="20895" windowHeight="14970" xr2:uid="{28E1B308-1BF0-4444-A4F1-6294EDA3BF4A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>Table 1 Lennard-Jones potential parameters used in this work</t>
   </si>
@@ -160,13 +160,21 @@
     <t>F=-dE/dr=-4*ε*((-12/σ)*(-13/σ)*(-14/σ)*(r/σ)^-15 - (-6/σ)*(-7/σ)*(-8/σ)*(r/σ)^-9)</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Note 1: V/εff = 0 at r=σfor Lennard-Jones (LJ) potential</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Note 2: V/εff=-1 at r0/σ = 2^(1/6) = 1.122 for Lennard-Jones (LJ) potential</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="198" formatCode="0.000000.E+00"/>
+    <numFmt numFmtId="176" formatCode="0.000000.E+00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -241,7 +249,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="198" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -4261,7 +4269,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Potential Energy, V/εff</a:t>
+                  <a:t>Energy, V/εff</a:t>
                 </a:r>
                 <a:endParaRPr lang="ja-JP"/>
               </a:p>
@@ -5317,7 +5325,7 @@
   <dimension ref="A1:O506"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6716,7 +6724,7 @@
         <v>7.6977161177768518E-32</v>
       </c>
     </row>
-    <row r="49" spans="8:14" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
       <c r="H49" s="2">
         <f t="shared" si="0"/>
         <v>1.1283783783783783</v>
@@ -6744,7 +6752,10 @@
         <v>6.9445261587495809E-32</v>
       </c>
     </row>
-    <row r="50" spans="8:14" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>35</v>
+      </c>
       <c r="H50" s="2">
         <f t="shared" si="0"/>
         <v>1.1351351351351351</v>
@@ -6772,7 +6783,10 @@
         <v>6.2648484188572738E-32</v>
       </c>
     </row>
-    <row r="51" spans="8:14" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>36</v>
+      </c>
       <c r="H51" s="2">
         <f t="shared" si="0"/>
         <v>1.1418918918918919</v>
@@ -6800,7 +6814,7 @@
         <v>5.6513167444871155E-32</v>
       </c>
     </row>
-    <row r="52" spans="8:14" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
       <c r="H52" s="2">
         <f t="shared" si="0"/>
         <v>1.1486486486486487</v>
@@ -6828,7 +6842,7 @@
         <v>5.0973305780804897E-32</v>
       </c>
     </row>
-    <row r="53" spans="8:14" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
       <c r="H53" s="2">
         <f t="shared" si="0"/>
         <v>1.1554054054054055</v>
@@ -6856,7 +6870,7 @@
         <v>4.5969721349600911E-32</v>
       </c>
     </row>
-    <row r="54" spans="8:14" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
       <c r="H54" s="2">
         <f t="shared" si="0"/>
         <v>1.1621621621621621</v>
@@ -6884,7 +6898,7 @@
         <v>4.1449329124950929E-32</v>
       </c>
     </row>
-    <row r="55" spans="8:14" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
       <c r="H55" s="2">
         <f t="shared" si="0"/>
         <v>1.1689189189189189</v>
@@ -6912,7 +6926,7 @@
         <v>3.7364484369781412E-32</v>
       </c>
     </row>
-    <row r="56" spans="8:14" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
       <c r="H56" s="2">
         <f t="shared" si="0"/>
         <v>1.1756756756756757</v>
@@ -6940,7 +6954,7 @@
         <v>3.3672402870894246E-32</v>
       </c>
     </row>
-    <row r="57" spans="8:14" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
       <c r="H57" s="2">
         <f t="shared" si="0"/>
         <v>1.1824324324324325</v>
@@ -6968,7 +6982,7 @@
         <v>3.0334645494171703E-32</v>
       </c>
     </row>
-    <row r="58" spans="8:14" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
       <c r="H58" s="2">
         <f t="shared" si="0"/>
         <v>1.1891891891891893</v>
@@ -6996,7 +7010,7 @@
         <v>2.7316659634125597E-32</v>
       </c>
     </row>
-    <row r="59" spans="8:14" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
       <c r="H59" s="2">
         <f t="shared" si="0"/>
         <v>1.1959459459459461</v>
@@ -7024,7 +7038,7 @@
         <v>2.4587371022967093E-32</v>
       </c>
     </row>
-    <row r="60" spans="8:14" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
       <c r="H60" s="2">
         <f t="shared" si="0"/>
         <v>1.2027027027027026</v>
@@ -7052,7 +7066,7 @@
         <v>2.2118820144672138E-32</v>
       </c>
     </row>
-    <row r="61" spans="8:14" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
       <c r="H61" s="2">
         <f t="shared" si="0"/>
         <v>1.2094594594594594</v>
@@ -7080,7 +7094,7 @@
         <v>1.9885838183082713E-32</v>
       </c>
     </row>
-    <row r="62" spans="8:14" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
       <c r="H62" s="2">
         <f t="shared" si="0"/>
         <v>1.2162162162162162</v>
@@ -7108,7 +7122,7 @@
         <v>1.7865758032338733E-32</v>
       </c>
     </row>
-    <row r="63" spans="8:14" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
       <c r="H63" s="2">
         <f t="shared" si="0"/>
         <v>1.222972972972973</v>
@@ -7136,7 +7150,7 @@
         <v>1.6038156423668049E-32</v>
       </c>
     </row>
-    <row r="64" spans="8:14" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.4">
       <c r="H64" s="2">
         <f t="shared" si="0"/>
         <v>1.2297297297297298</v>

--- a/Feynman-Hibbs_effective_potential.xlsx
+++ b/Feynman-Hibbs_effective_potential.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A5F2B5-61EA-452B-9D23-A3ACB8631A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6D6519-B158-4AFA-813D-6E32F13489D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="315" yWindow="360" windowWidth="20895" windowHeight="14970" xr2:uid="{28E1B308-1BF0-4444-A4F1-6294EDA3BF4A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Table 1 Lennard-Jones potential parameters used in this work</t>
   </si>
@@ -109,10 +109,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>factor [eV]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[1] https://doi.org/10.1007/s10909-009-9917-8</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -166,6 +162,14 @@
   </si>
   <si>
     <t>Note 2: V/εff=-1 at r0/σ = 2^(1/6) = 1.122 for Lennard-Jones (LJ) potential</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>factor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mr = μm</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5324,8 +5328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88EB46C8-DFC4-4914-89F1-D5FB01FF4434}">
   <dimension ref="A1:O506"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5351,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
@@ -5381,7 +5385,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
@@ -5417,13 +5421,13 @@
         <v>6</v>
       </c>
       <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
         <v>30</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>31</v>
-      </c>
-      <c r="J6" t="s">
-        <v>32</v>
       </c>
       <c r="O6" s="1"/>
     </row>
@@ -5473,7 +5477,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" ref="H8:H71" si="0">L8/$E$16</f>
@@ -5504,7 +5508,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="0"/>
@@ -5566,16 +5570,16 @@
         <v>20</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="0"/>
@@ -5650,7 +5654,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="0"/>
@@ -5899,7 +5903,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="0"/>
@@ -5930,7 +5934,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="0"/>
@@ -6023,7 +6027,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" si="0"/>
@@ -6754,7 +6758,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H50" s="2">
         <f t="shared" si="0"/>
@@ -6785,7 +6789,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H51" s="2">
         <f t="shared" si="0"/>
